--- a/src/pages/User/Import/asset/user.xlsx
+++ b/src/pages/User/Import/asset/user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/project/nocalhost/nocalhost-web/src/pages/User/Import/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC03458-D950-F042-930D-152EA89F4F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262624EA-1AD6-E643-B051-809C43DAF368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1500" windowWidth="32740" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52700" yWindow="7520" windowWidth="32740" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,16 +62,16 @@
 auto_init_cluster/nh2uouw3</t>
   </si>
   <si>
+    <t>auto_init_cluster/nh2uouw4</t>
+  </si>
+  <si>
     <t>填写须知：
 1. 请勿修改表格结构：
 2. 标红字段为必填项，黑色字段为选填项：
 3. 邮箱：必填，成员的唯一标识，登陆 nocalhost server 使用
 4. 用户名称：必填，用于在系统内显示
-5. Cooperator DevSpace：非必填，协作开发空间，能对 ns 进行管理操作，按 cluster/ns 格式填写，多个以换行分割
-6. Viewer  DevSpace：非必填，协作开发空间，对 ns 只读，无法安装、卸载应用等，按 cluster/ns 格式填写，多个以换行分割</t>
-  </si>
-  <si>
-    <t>auto_init_cluster/nh2uouw4</t>
+5. Cooperator DevSpace：非必填，协作开发空间，能对 ns 进行管理操作，按 nocalhost cluster/ns 格式填写，多个以换行分割
+6. Viewer  DevSpace：非必填，协作开发空间，对 ns 只读，无法安装、卸载应用等，按 nocalhost cluster/ns 格式填写，多个以换行分割</t>
   </si>
 </sst>
 </file>
@@ -175,17 +175,17 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,7 +465,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -473,16 +473,16 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="164" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -502,21 +502,21 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5"/>
@@ -526,7 +526,7 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
@@ -536,7 +536,7 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5"/>

--- a/src/pages/User/Import/asset/user.xlsx
+++ b/src/pages/User/Import/asset/user.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/project/nocalhost/nocalhost-web/src/pages/User/Import/asset/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262624EA-1AD6-E643-B051-809C43DAF368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52700" yWindow="7520" windowWidth="32740" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28020" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,306 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>邮箱</t>
+    <r>
+      <t xml:space="preserve">填写须知：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 请勿修改表格结构：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 标红字段为必填项，黑色字段为选填项：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 邮箱：必填，成员的唯一标识，登陆 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nocalhost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 使用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 用户名称：必填，用于在系统内显示
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cooperator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DevSpace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：非必填，协作开发空间，能对 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 进行管理操作，按 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nocalhost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cluster/ns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 格式填写，多个以换行分割
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Viewer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DevSpace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：非必填，协作开发空间，对 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 只读，无法安装、卸载应用等，按 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nocalhost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cluster/ns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 格式填写，多个以换行分割</t>
+    </r>
   </si>
   <si>
-    <t>zhangsan@123.com</t>
-  </si>
-  <si>
-    <t>zhangsan@125.com</t>
-  </si>
-  <si>
-    <t>zhangsan@126.com</t>
-  </si>
-  <si>
-    <t>zhangsan@127.com</t>
+    <t>邮箱</t>
   </si>
   <si>
     <t>用户名称</t>
@@ -46,16 +327,10 @@
     <t>Viewer  DevSpace</t>
   </si>
   <si>
-    <t>zhangsan 1</t>
+    <t>zhangsan@123.com</t>
   </si>
   <si>
-    <t>zhangsan 3</t>
-  </si>
-  <si>
-    <t>zhangsan 4</t>
-  </si>
-  <si>
-    <t>zhangsan 5</t>
+    <t>zhangsan1</t>
   </si>
   <si>
     <t>auto_init_cluster/nh2uouw
@@ -65,64 +340,225 @@
     <t>auto_init_cluster/nh2uouw4</t>
   </si>
   <si>
-    <t>填写须知：
-1. 请勿修改表格结构：
-2. 标红字段为必填项，黑色字段为选填项：
-3. 邮箱：必填，成员的唯一标识，登陆 nocalhost server 使用
-4. 用户名称：必填，用于在系统内显示
-5. Cooperator DevSpace：非必填，协作开发空间，能对 ns 进行管理操作，按 nocalhost cluster/ns 格式填写，多个以换行分割
-6. Viewer  DevSpace：非必填，协作开发空间，对 ns 只读，无法安装、卸载应用等，按 nocalhost cluster/ns 格式填写，多个以换行分割</t>
+    <t>zhangsan@125.com</t>
+  </si>
+  <si>
+    <t>zhangsan3</t>
+  </si>
+  <si>
+    <t>zhangsan@126.com</t>
+  </si>
+  <si>
+    <t>zhangsan4</t>
+  </si>
+  <si>
+    <t>zhangsan@127.com</t>
+  </si>
+  <si>
+    <t>zhangsan5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="4"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,18 +567,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -150,9 +772,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -163,42 +1027,86 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -456,98 +1364,98 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="12.8296296296296" customWidth="1"/>
+    <col min="3" max="3" width="25.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="164" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="164" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="25" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/pages/User/Import/asset/user.xlsx
+++ b/src/pages/User/Import/asset/user.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/project/nocalhost/nocalhost-web/src/pages/User/Import/asset/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEB93BF-C7BA-DB49-A07C-337AFCB109B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28020" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -361,18 +367,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -390,166 +390,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,7 +407,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,194 +426,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -772,251 +435,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,86 +448,42 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1364,98 +741,97 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="12.8296296296296" customWidth="1"/>
-    <col min="3" max="3" width="25.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="24.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="164" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="164" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.5" spans="1:4">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" ht="25" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" ht="25" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4"/>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" ht="25" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>